--- a/src/test/resources/credentials.xlsx
+++ b/src/test/resources/credentials.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alenaandryiashava/Project/NoCodeUniversity_Project/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9292F4A-8CA7-2F49-B16F-CEDFE59AAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC0F6E9-EC7E-2346-8F03-B859C1268C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="1060" windowWidth="24800" windowHeight="17440" activeTab="1" xr2:uid="{8709388E-99D6-8049-B0E8-505F38C5DC55}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="24800" windowHeight="17440" activeTab="1" xr2:uid="{8709388E-99D6-8049-B0E8-505F38C5DC55}"/>
   </bookViews>
   <sheets>
     <sheet name="correctData" sheetId="1" r:id="rId1"/>
-    <sheet name="wrongCred" sheetId="3" r:id="rId2"/>
+    <sheet name="wrongData" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>12qwerty3456</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -459,15 +465,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9A407C-1229-E44C-B06B-941B6D8A682A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -479,7 +486,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -508,6 +515,22 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
